--- a/Output_Results/data_peleg.xlsx
+++ b/Output_Results/data_peleg.xlsx
@@ -3470,7 +3470,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>57</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>

--- a/Output_Results/data_peleg.xlsx
+++ b/Output_Results/data_peleg.xlsx
@@ -549,13 +549,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H2" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I2" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -609,13 +609,13 @@
         <v>0.825</v>
       </c>
       <c r="G3" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H3" t="n">
-        <v>72.5</v>
+        <v>0.725</v>
       </c>
       <c r="I3" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -669,13 +669,13 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I4" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J4" t="n">
         <v>1.4667</v>
@@ -729,13 +729,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I5" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
@@ -789,13 +789,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I6" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J6" t="n">
         <v>2.5667</v>
@@ -849,13 +849,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H7" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I7" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J7" t="n">
         <v>2.3</v>
@@ -909,13 +909,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I8" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J8" t="n">
         <v>1.3667</v>
@@ -969,13 +969,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I9" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J9" t="n">
         <v>1.3333</v>
@@ -1029,13 +1029,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G10" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H10" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I10" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J10" t="n">
         <v>2.5667</v>
@@ -1089,13 +1089,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G11" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I11" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1149,13 +1149,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G12" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H12" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I12" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J12" t="n">
         <v>4.8333</v>
@@ -1209,13 +1209,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I13" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J13" t="n">
         <v>5.5333</v>
@@ -1269,13 +1269,13 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I14" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="J14" t="n">
         <v>2.6</v>
@@ -1329,13 +1329,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G15" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H15" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>3.7667</v>
@@ -1389,13 +1389,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H16" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J16" t="n">
         <v>4.6333</v>
@@ -1449,13 +1449,13 @@
         <v>0.975</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I17" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J17" t="n">
         <v>4.3</v>
@@ -1509,13 +1509,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H18" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I18" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J18" t="n">
         <v>2.2667</v>
@@ -1569,13 +1569,13 @@
         <v>0.95</v>
       </c>
       <c r="G19" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>3.5667</v>
@@ -1629,13 +1629,13 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H20" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I20" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1689,13 +1689,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J21" t="n">
         <v>1.1333</v>
@@ -1749,13 +1749,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H22" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>2.2</v>
@@ -1809,13 +1809,13 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H23" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I23" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J23" t="n">
         <v>2.8</v>
@@ -1869,13 +1869,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G24" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H24" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I24" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J24" t="n">
         <v>2.8667</v>
@@ -1929,13 +1929,13 @@
         <v>0.975</v>
       </c>
       <c r="G25" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H25" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I25" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J25" t="n">
         <v>1.7667</v>
@@ -1989,13 +1989,13 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H26" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I26" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J26" t="n">
         <v>4.7333</v>
@@ -2049,13 +2049,13 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H27" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -2109,13 +2109,13 @@
         <v>0.9833333333333333</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I28" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J28" t="n">
         <v>4.4</v>
@@ -2169,13 +2169,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G29" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I29" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J29" t="n">
         <v>4.6333</v>
@@ -2229,13 +2229,13 @@
         <v>0.95</v>
       </c>
       <c r="G30" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H30" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I30" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J30" t="n">
         <v>3.7667</v>
@@ -2289,13 +2289,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I31" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J31" t="n">
         <v>4.1333</v>
@@ -2349,13 +2349,13 @@
         <v>0.9833333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H32" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J32" t="n">
         <v>1.3</v>
@@ -2409,13 +2409,13 @@
         <v>0.9833333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J33" t="n">
         <v>3.9333</v>
@@ -2469,13 +2469,13 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H34" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I34" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>4.1</v>
@@ -2529,13 +2529,13 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="G35" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H35" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="I35" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J35" t="n">
         <v>4.5333</v>
@@ -2589,13 +2589,13 @@
         <v>0.975</v>
       </c>
       <c r="G36" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H36" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J36" t="n">
         <v>1.0667</v>
@@ -2649,13 +2649,13 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G37" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="H37" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I37" t="n">
-        <v>67.5</v>
+        <v>0.675</v>
       </c>
       <c r="J37" t="n">
         <v>1.8333</v>
@@ -2709,13 +2709,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G38" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H38" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I38" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J38" t="n">
         <v>2.1333</v>
@@ -2769,13 +2769,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="H39" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I39" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J39" t="n">
         <v>2.8333</v>
@@ -2829,13 +2829,13 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G40" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H40" t="n">
-        <v>67.5</v>
+        <v>0.675</v>
       </c>
       <c r="I40" t="n">
-        <v>67.5</v>
+        <v>0.675</v>
       </c>
       <c r="J40" t="n">
         <v>4.1</v>
@@ -2889,13 +2889,13 @@
         <v>0.95</v>
       </c>
       <c r="G41" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H41" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I41" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J41" t="n">
         <v>3.4333</v>
@@ -2949,13 +2949,13 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="I42" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -3009,13 +3009,13 @@
         <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H43" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I43" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J43" t="n">
         <v>3.3</v>
@@ -3069,13 +3069,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I44" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1.2</v>
@@ -3129,13 +3129,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H45" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J45" t="n">
         <v>1.9333</v>
@@ -3189,13 +3189,13 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="G46" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>3.9</v>
@@ -3249,13 +3249,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H47" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I47" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J47" t="n">
         <v>2.0333</v>
@@ -3309,13 +3309,13 @@
         <v>0.925</v>
       </c>
       <c r="G48" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H48" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I48" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J48" t="n">
         <v>1.7</v>
@@ -3369,13 +3369,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G49" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H49" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J49" t="n">
         <v>2.8</v>
@@ -3429,13 +3429,13 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="I50" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J50" t="n">
         <v>1.1</v>
@@ -3489,13 +3489,13 @@
         <v>0.975</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H51" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>3</v>
@@ -3549,13 +3549,13 @@
         <v>0.975</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H52" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J52" t="n">
         <v>4.6</v>
@@ -3609,13 +3609,13 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="G53" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="H53" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I53" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="J53" t="n">
         <v>1.3333</v>
@@ -3669,13 +3669,13 @@
         <v>0.95</v>
       </c>
       <c r="G54" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H54" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I54" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J54" t="n">
         <v>2.5667</v>
@@ -3729,13 +3729,13 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="G55" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H55" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I55" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J55" t="n">
         <v>3.2</v>
@@ -3789,13 +3789,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G56" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J56" t="n">
         <v>4</v>
@@ -3849,13 +3849,13 @@
         <v>0.975</v>
       </c>
       <c r="G57" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H57" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J57" t="n">
         <v>2.9</v>
@@ -3909,13 +3909,13 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>4.4333</v>
@@ -3969,13 +3969,13 @@
         <v>0.975</v>
       </c>
       <c r="G59" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H59" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I59" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>2.7667</v>
@@ -4029,13 +4029,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G60" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H60" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I60" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J60" t="n">
         <v>2.2667</v>
@@ -4089,13 +4089,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G61" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H61" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I61" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J61" t="n">
         <v>2.9</v>
@@ -4149,13 +4149,13 @@
         <v>0.8916666666666667</v>
       </c>
       <c r="G62" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H62" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I62" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J62" t="n">
         <v>3.4667</v>
@@ -4209,13 +4209,13 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="G63" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H63" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I63" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J63" t="n">
         <v>5.3667</v>
@@ -4269,13 +4269,13 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="G64" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H64" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I64" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J64" t="n">
         <v>3.2</v>
@@ -4329,13 +4329,13 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G65" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="H65" t="n">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="I65" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J65" t="n">
         <v>1.6333</v>
@@ -4389,13 +4389,13 @@
         <v>0.875</v>
       </c>
       <c r="G66" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H66" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I66" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J66" t="n">
         <v>4.4</v>
@@ -4449,13 +4449,13 @@
         <v>0.725</v>
       </c>
       <c r="G67" t="n">
-        <v>72.5</v>
+        <v>0.725</v>
       </c>
       <c r="H67" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="I67" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="J67" t="n">
         <v>5.5</v>
@@ -4509,13 +4509,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="G68" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I68" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J68" t="n">
         <v>2.8333</v>
@@ -4569,13 +4569,13 @@
         <v>0.95</v>
       </c>
       <c r="G69" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H69" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I69" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J69" t="n">
         <v>4.9</v>
@@ -4629,13 +4629,13 @@
         <v>0.8</v>
       </c>
       <c r="G70" t="n">
-        <v>72.5</v>
+        <v>0.725</v>
       </c>
       <c r="H70" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="I70" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J70" t="n">
         <v>3.7</v>
@@ -4689,13 +4689,13 @@
         <v>0.9</v>
       </c>
       <c r="G71" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I71" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J71" t="n">
         <v>3.6</v>
@@ -4749,13 +4749,13 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="G72" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H72" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I72" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J72" t="n">
         <v>3.6333</v>
@@ -4809,13 +4809,13 @@
         <v>0.8</v>
       </c>
       <c r="G73" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="H73" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="I73" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J73" t="n">
         <v>2.7667</v>
@@ -4869,13 +4869,13 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="G74" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="I74" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J74" t="n">
         <v>4.2</v>
@@ -4929,13 +4929,13 @@
         <v>0.925</v>
       </c>
       <c r="G75" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H75" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I75" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J75" t="n">
         <v>3.1</v>
@@ -4989,13 +4989,13 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="G76" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H76" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I76" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J76" t="n">
         <v>4</v>
@@ -5049,13 +5049,13 @@
         <v>0.975</v>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I77" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J77" t="n">
         <v>4.8333</v>
@@ -5109,13 +5109,13 @@
         <v>0.925</v>
       </c>
       <c r="G78" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H78" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I78" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J78" t="n">
         <v>5.8</v>
@@ -5169,13 +5169,13 @@
         <v>0.925</v>
       </c>
       <c r="G79" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H79" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I79" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J79" t="n">
         <v>3.3333</v>
@@ -5229,13 +5229,13 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="G80" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="I80" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J80" t="n">
         <v>3.9667</v>
@@ -5289,13 +5289,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="G81" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I81" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J81" t="n">
         <v>1.0333</v>
@@ -5349,13 +5349,13 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="G82" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H82" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="I82" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J82" t="n">
         <v>2.2333</v>
@@ -5409,13 +5409,13 @@
         <v>0.85</v>
       </c>
       <c r="G83" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H83" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I83" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J83" t="n">
         <v>3.4667</v>
@@ -5469,13 +5469,13 @@
         <v>0.9</v>
       </c>
       <c r="G84" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H84" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I84" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="J84" t="n">
         <v>5.0667</v>
@@ -5529,13 +5529,13 @@
         <v>0.85</v>
       </c>
       <c r="G85" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I85" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J85" t="n">
         <v>2.6</v>
@@ -5589,13 +5589,13 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="G86" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="H86" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="I86" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J86" t="n">
         <v>3.1</v>
@@ -5649,13 +5649,13 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="G87" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="H87" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I87" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J87" t="n">
         <v>4</v>
@@ -5709,13 +5709,13 @@
         <v>0.95</v>
       </c>
       <c r="G88" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H88" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I88" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J88" t="n">
         <v>4.4</v>
@@ -5769,13 +5769,13 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="G89" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H89" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I89" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J89" t="n">
         <v>4.6</v>
@@ -5829,13 +5829,13 @@
         <v>0.95</v>
       </c>
       <c r="G90" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H90" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="I90" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="J90" t="n">
         <v>4.6667</v>
@@ -5889,13 +5889,13 @@
         <v>0.9</v>
       </c>
       <c r="G91" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I91" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J91" t="n">
         <v>4.2333</v>
@@ -5949,13 +5949,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G92" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H92" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I92" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J92" t="n">
         <v>2.9</v>
@@ -6009,13 +6009,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G93" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I93" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J93" t="n">
         <v>5.2667</v>
@@ -6069,13 +6069,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G94" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H94" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I94" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J94" t="n">
         <v>4.1667</v>
@@ -6129,13 +6129,13 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="G95" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H95" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="I95" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="J95" t="n">
         <v>4.0667</v>
@@ -6189,13 +6189,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G96" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H96" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I96" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J96" t="n">
         <v>4.4333</v>
@@ -6249,13 +6249,13 @@
         <v>0.825</v>
       </c>
       <c r="G97" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="I97" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="J97" t="n">
         <v>2.8667</v>
@@ -6309,13 +6309,13 @@
         <v>0.8083333333333332</v>
       </c>
       <c r="G98" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H98" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="I98" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J98" t="n">
         <v>4.1</v>
@@ -6369,13 +6369,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G99" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H99" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I99" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J99" t="n">
         <v>3.8667</v>
@@ -6429,13 +6429,13 @@
         <v>0.45</v>
       </c>
       <c r="G100" t="n">
-        <v>47.5</v>
+        <v>0.475</v>
       </c>
       <c r="H100" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="J100" t="n">
         <v>1.3333</v>
@@ -6489,13 +6489,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="G101" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H101" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I101" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J101" t="n">
         <v>5.1</v>
@@ -6549,13 +6549,13 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H102" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="I102" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="J102" t="n">
         <v>4.0667</v>
@@ -6609,13 +6609,13 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="G103" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
-        <v>67.5</v>
+        <v>0.675</v>
       </c>
       <c r="I103" t="n">
-        <v>67.5</v>
+        <v>0.675</v>
       </c>
       <c r="J103" t="n">
         <v>2.7333</v>
@@ -6669,13 +6669,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="G104" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I104" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J104" t="n">
         <v>2.7333</v>
@@ -6729,13 +6729,13 @@
         <v>0.675</v>
       </c>
       <c r="G105" t="n">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="H105" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="I105" t="n">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="J105" t="n">
         <v>1.1333</v>
@@ -6789,13 +6789,13 @@
         <v>0.8583333333333333</v>
       </c>
       <c r="G106" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H106" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="I106" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="J106" t="n">
         <v>2.0333</v>
@@ -6849,13 +6849,13 @@
         <v>0.9083333333333333</v>
       </c>
       <c r="G107" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I107" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J107" t="n">
         <v>6.4333</v>
@@ -6909,13 +6909,13 @@
         <v>0.6916666666666668</v>
       </c>
       <c r="G108" t="n">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="H108" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="I108" t="n">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="J108" t="n">
         <v>4.6</v>
@@ -6969,13 +6969,13 @@
         <v>0.6416666666666667</v>
       </c>
       <c r="G109" t="n">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="H109" t="n">
-        <v>47.5</v>
+        <v>0.475</v>
       </c>
       <c r="I109" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J109" t="n">
         <v>3.1667</v>
@@ -7029,13 +7029,13 @@
         <v>0.85</v>
       </c>
       <c r="G110" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="H110" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I110" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J110" t="n">
         <v>5.1667</v>
@@ -7089,13 +7089,13 @@
         <v>0.925</v>
       </c>
       <c r="G111" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H111" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I111" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J111" t="n">
         <v>4.6</v>
@@ -7149,13 +7149,13 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G112" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="H112" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="I112" t="n">
-        <v>72.5</v>
+        <v>0.725</v>
       </c>
       <c r="J112" t="n">
         <v>4.3</v>
@@ -7209,13 +7209,13 @@
         <v>0.925</v>
       </c>
       <c r="G113" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H113" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="I113" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J113" t="n">
         <v>3.8667</v>
@@ -7269,13 +7269,13 @@
         <v>0.8416666666666667</v>
       </c>
       <c r="G114" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H114" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="I114" t="n">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="J114" t="n">
         <v>2.3667</v>
@@ -7329,13 +7329,13 @@
         <v>0.9333333333333332</v>
       </c>
       <c r="G115" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="H115" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="I115" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="J115" t="n">
         <v>4.1667</v>
@@ -7389,13 +7389,13 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="G116" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="I116" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="J116" t="n">
         <v>4.8667</v>
@@ -7449,13 +7449,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G117" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J117" t="n">
         <v>4.4</v>
@@ -7509,13 +7509,13 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G118" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="H118" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>92.5</v>
+        <v>0.925</v>
       </c>
       <c r="J118" t="n">
         <v>4.3333</v>
@@ -7569,13 +7569,13 @@
         <v>0.825</v>
       </c>
       <c r="G119" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="H119" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="I119" t="n">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="J119" t="n">
         <v>2.0333</v>
@@ -7629,13 +7629,13 @@
         <v>0.825</v>
       </c>
       <c r="G120" t="n">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="H120" t="n">
-        <v>77.5</v>
+        <v>0.775</v>
       </c>
       <c r="I120" t="n">
-        <v>82.5</v>
+        <v>0.825</v>
       </c>
       <c r="J120" t="n">
         <v>4.7333</v>
@@ -7689,13 +7689,13 @@
         <v>0.9416666666666668</v>
       </c>
       <c r="G121" t="n">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="H121" t="n">
-        <v>97.5</v>
+        <v>0.975</v>
       </c>
       <c r="I121" t="n">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="J121" t="n">
         <v>2.1667</v>
